--- a/data/trans_orig/P15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12287</v>
+        <v>11805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28423</v>
+        <v>28541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06895173262164617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04500549266690264</v>
+        <v>0.04324143075185102</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1041111352313841</v>
+        <v>0.104541146671757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>14922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8280</v>
+        <v>8358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24584</v>
+        <v>25495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05720940834195015</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03174538209348311</v>
+        <v>0.0320421717879024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09424896044987033</v>
+        <v>0.09774205826002699</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -786,19 +786,19 @@
         <v>33747</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23533</v>
+        <v>23773</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47436</v>
+        <v>46621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06321443422913564</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04408239260959037</v>
+        <v>0.04453077811756068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08885604078712693</v>
+        <v>0.08733059284933523</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>254185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244587</v>
+        <v>244469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>260723</v>
+        <v>261205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9310482673783539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8958888647686161</v>
+        <v>0.8954588533282429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9549945073330975</v>
+        <v>0.9567585692481488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -836,19 +836,19 @@
         <v>245916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236254</v>
+        <v>235343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252558</v>
+        <v>252480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9427905916580498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9057510395501297</v>
+        <v>0.9022579417399729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9682546179065169</v>
+        <v>0.9679578282120975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -857,19 +857,19 @@
         <v>500101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>486412</v>
+        <v>487227</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>510315</v>
+        <v>510075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9367855657708644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9111439592128732</v>
+        <v>0.9126694071506649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9559176073904097</v>
+        <v>0.9554692218824393</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12318</v>
+        <v>12463</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31433</v>
+        <v>32279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0404430719476476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02498196706900854</v>
+        <v>0.02527650035776653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06374947167989829</v>
+        <v>0.06546515397237644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>18499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11130</v>
+        <v>11363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29371</v>
+        <v>28079</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03670798839011986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02208647271890086</v>
+        <v>0.02254774764612399</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05828075354114104</v>
+        <v>0.0557184739442276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1003,19 +1003,19 @@
         <v>38440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26912</v>
+        <v>27065</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51081</v>
+        <v>51566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0385551620000747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02699218631213233</v>
+        <v>0.02714534260975727</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05123353455039073</v>
+        <v>0.0517202512150754</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>473134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461642</v>
+        <v>460796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480757</v>
+        <v>480612</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9595569280523524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9362505283201017</v>
+        <v>0.9345348460276235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9750180329309914</v>
+        <v>0.9747234996422335</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>481</v>
@@ -1053,19 +1053,19 @@
         <v>485450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474578</v>
+        <v>475870</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492819</v>
+        <v>492586</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9632920116098801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9417192464588594</v>
+        <v>0.9442815260557725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9779135272810991</v>
+        <v>0.977452252353876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>929</v>
@@ -1074,19 +1074,19 @@
         <v>958584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>945943</v>
+        <v>945458</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>970112</v>
+        <v>969959</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9614448379999253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9487664654496092</v>
+        <v>0.9482797487849245</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9730078136878676</v>
+        <v>0.9728546573902427</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>31480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21722</v>
+        <v>22151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42982</v>
+        <v>44795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09873131237097073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06812637931583983</v>
+        <v>0.06947240019971619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1348040158705547</v>
+        <v>0.1404909015571326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>15486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9043</v>
+        <v>8134</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24527</v>
+        <v>24345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04617105834644449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02696024678418558</v>
+        <v>0.0242512759966844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07312434541439684</v>
+        <v>0.07258231635669067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1220,19 +1220,19 @@
         <v>46966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34814</v>
+        <v>34954</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61625</v>
+        <v>62533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07178576129423497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05321127548585983</v>
+        <v>0.05342466588130749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09419043558578152</v>
+        <v>0.09557882547024225</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>287366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275864</v>
+        <v>274051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297124</v>
+        <v>296695</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9012686876290292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8651959841294453</v>
+        <v>0.8595090984428677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9318736206841602</v>
+        <v>0.9305275998002838</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>320</v>
@@ -1270,19 +1270,19 @@
         <v>319926</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>310885</v>
+        <v>311067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326369</v>
+        <v>327278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9538289416535555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9268756545856032</v>
+        <v>0.9274176836433092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9730397532158145</v>
+        <v>0.9757487240033156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>601</v>
@@ -1291,19 +1291,19 @@
         <v>607292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>592633</v>
+        <v>591725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>619444</v>
+        <v>619304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.928214238705765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9058095644142186</v>
+        <v>0.904421174529758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9467887245141403</v>
+        <v>0.9465753341186928</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28510</v>
+        <v>28349</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51903</v>
+        <v>52737</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1108208411781662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07948710480332608</v>
+        <v>0.07903948779209863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1447088893561811</v>
+        <v>0.1470331340481772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>20512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12889</v>
+        <v>13929</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30114</v>
+        <v>31013</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05521924796723173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0346988425226961</v>
+        <v>0.03749843936519054</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08106925559862832</v>
+        <v>0.08348905055204657</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1437,19 +1437,19 @@
         <v>60260</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46966</v>
+        <v>48290</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75715</v>
+        <v>76432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08253324013816378</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06432579233547756</v>
+        <v>0.06613904833074896</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1037011572812901</v>
+        <v>0.1046825804330865</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>318923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>306768</v>
+        <v>305934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330161</v>
+        <v>330322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8891791588218338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8552911106438194</v>
+        <v>0.8529668659518228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9205128951966739</v>
+        <v>0.9209605122079015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>363</v>
@@ -1487,19 +1487,19 @@
         <v>350944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341342</v>
+        <v>340443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358567</v>
+        <v>357527</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9447807520327682</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9189307444013717</v>
+        <v>0.9165109494479533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9653011574773038</v>
+        <v>0.9625015606348092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>684</v>
@@ -1508,19 +1508,19 @@
         <v>669867</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>654412</v>
+        <v>653695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>683161</v>
+        <v>681837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9174667598618362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8962988427187099</v>
+        <v>0.8953174195669137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9356742076645226</v>
+        <v>0.9338609516692511</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>19494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12517</v>
+        <v>12359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29226</v>
+        <v>28719</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09588195206911468</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06156913373246142</v>
+        <v>0.06078711627442663</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1437535701041213</v>
+        <v>0.141258318836271</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12776</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6427</v>
+        <v>7131</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21391</v>
+        <v>22032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06151969748294342</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03094743583984946</v>
+        <v>0.03433982701409275</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1030037118469012</v>
+        <v>0.106091774253526</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1654,19 +1654,19 @@
         <v>32269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22893</v>
+        <v>22714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44907</v>
+        <v>44513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07851855399544937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05570323791104543</v>
+        <v>0.05526762929356852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1092703533536987</v>
+        <v>0.1083114534402049</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>183814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174082</v>
+        <v>174589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190791</v>
+        <v>190949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9041180479308853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8562464298958787</v>
+        <v>0.858741681163729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9384308662675386</v>
+        <v>0.9392128837255734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>186</v>
@@ -1704,19 +1704,19 @@
         <v>194892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186277</v>
+        <v>185636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201241</v>
+        <v>200537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9384803025170566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8969962881530988</v>
+        <v>0.893908225746474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9690525641601505</v>
+        <v>0.9656601729859072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -1725,19 +1725,19 @@
         <v>378707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>366069</v>
+        <v>366463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388083</v>
+        <v>388262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9214814460045506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8907296466463013</v>
+        <v>0.8916885465597951</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9442967620889545</v>
+        <v>0.9447323707064315</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>19689</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11705</v>
+        <v>11771</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29127</v>
+        <v>30105</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0727031053277762</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04322346887149627</v>
+        <v>0.04346444022709512</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1075547706205263</v>
+        <v>0.1111660272970109</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1850,19 +1850,19 @@
         <v>21315</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13664</v>
+        <v>13100</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32170</v>
+        <v>31705</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07663162398217721</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04912400883842534</v>
+        <v>0.04709924519493149</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1156608892633477</v>
+        <v>0.1139875709277328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1871,19 +1871,19 @@
         <v>41003</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28683</v>
+        <v>30155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54514</v>
+        <v>55295</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07469360342808069</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05224951493355608</v>
+        <v>0.05493178984093346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09930566408169372</v>
+        <v>0.1007277694143487</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>251122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241684</v>
+        <v>240706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259106</v>
+        <v>259040</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9272968946722238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8924452293794739</v>
+        <v>0.8888339727029895</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9567765311285038</v>
+        <v>0.9565355597729048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>250</v>
@@ -1921,19 +1921,19 @@
         <v>256829</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245974</v>
+        <v>246439</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264480</v>
+        <v>265044</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9233683760178227</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8843391107366523</v>
+        <v>0.8860124290722672</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9508759911615747</v>
+        <v>0.9529007548050685</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -1942,19 +1942,19 @@
         <v>507952</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>494441</v>
+        <v>493660</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520272</v>
+        <v>518800</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9253063965719193</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9006943359183063</v>
+        <v>0.8992722305856513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9477504850664439</v>
+        <v>0.9450682101590665</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>45149</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31997</v>
+        <v>33371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58515</v>
+        <v>59871</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07340945739058148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05202539584130929</v>
+        <v>0.05425986008538895</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09514226668772185</v>
+        <v>0.09734692022485457</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2067,19 +2067,19 @@
         <v>24093</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15668</v>
+        <v>15559</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35033</v>
+        <v>33856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03775050734593705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02454889574211204</v>
+        <v>0.02437833749211938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0548919750971129</v>
+        <v>0.05304709742667011</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -2088,19 +2088,19 @@
         <v>69242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54525</v>
+        <v>53859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86262</v>
+        <v>87010</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05525003774043272</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04350725452863172</v>
+        <v>0.04297579040438532</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06883074179476556</v>
+        <v>0.0694279071195404</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>569878</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>556512</v>
+        <v>555156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>583030</v>
+        <v>581656</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9265905426094185</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9048577333122781</v>
+        <v>0.9026530797751454</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9479746041586908</v>
+        <v>0.945740139914611</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>597</v>
@@ -2138,19 +2138,19 @@
         <v>614126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>603186</v>
+        <v>604363</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622551</v>
+        <v>622660</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9622494926540629</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9451080249028871</v>
+        <v>0.9469529025733289</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9754511042578881</v>
+        <v>0.9756216625078805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1152</v>
@@ -2159,19 +2159,19 @@
         <v>1184004</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1166984</v>
+        <v>1166236</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1198721</v>
+        <v>1199387</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9447499622595673</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9311692582052346</v>
+        <v>0.9305720928804596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9564927454713683</v>
+        <v>0.9570242095956146</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>48731</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36240</v>
+        <v>37316</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63226</v>
+        <v>63791</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06551662682870051</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04872341685216261</v>
+        <v>0.05016916758834004</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08500525560197547</v>
+        <v>0.08576362283120155</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2284,19 +2284,19 @@
         <v>47788</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36053</v>
+        <v>36078</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62360</v>
+        <v>63101</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06099219619065974</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04601451570677829</v>
+        <v>0.04604631281618694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07959065909600603</v>
+        <v>0.08053623392035583</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>95</v>
@@ -2305,19 +2305,19 @@
         <v>96519</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>78816</v>
+        <v>77990</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114873</v>
+        <v>117245</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06319558502274372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05160444412811079</v>
+        <v>0.05106366438980505</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0752131204747139</v>
+        <v>0.07676561362385922</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>695064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>680569</v>
+        <v>680004</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>707555</v>
+        <v>706479</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9344833731712995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9149947443980245</v>
+        <v>0.9142363771687982</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9512765831478374</v>
+        <v>0.9498308324116599</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>699</v>
@@ -2355,19 +2355,19 @@
         <v>735723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>721151</v>
+        <v>720410</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>747458</v>
+        <v>747433</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9390078038093402</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9204093409039938</v>
+        <v>0.9194637660796443</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9539854842932217</v>
+        <v>0.9539536871838131</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1386</v>
@@ -2376,19 +2376,19 @@
         <v>1430787</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1412433</v>
+        <v>1410061</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1448490</v>
+        <v>1449316</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9368044149772563</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9247868795252859</v>
+        <v>0.9232343863761409</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9483955558718893</v>
+        <v>0.9489363356101951</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>243056</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07418074369571771</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>169</v>
@@ -2501,19 +2501,19 @@
         <v>175391</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05190305141419276</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>406</v>
@@ -2522,19 +2522,19 @@
         <v>418447</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0628700989478881</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3033487</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3001968</v>
+        <v>3003259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3061827</v>
+        <v>3061288</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9258192563042823</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.916199823517766</v>
+        <v>0.9165937942545209</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9344686343703825</v>
+        <v>0.9343042919263597</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3128</v>
@@ -2572,19 +2572,19 @@
         <v>3203806</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3176692</v>
+        <v>3175252</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3228741</v>
+        <v>3227846</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9480969485858073</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9400729458932681</v>
+        <v>0.9396469437220937</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9554758746307618</v>
+        <v>0.9552110150231821</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6105</v>
@@ -2593,19 +2593,19 @@
         <v>6237294</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6196603</v>
+        <v>6195839</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6275574</v>
+        <v>6275248</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9371299010521119</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.931016267592166</v>
+        <v>0.9309014570054767</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.942881380025493</v>
+        <v>0.9428323388895968</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>37037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26339</v>
+        <v>27408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50572</v>
+        <v>49849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1256594490556812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08936541595603099</v>
+        <v>0.09299027737143624</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1715831179796344</v>
+        <v>0.1691283672701026</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2962,19 +2962,19 @@
         <v>27623</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18671</v>
+        <v>18013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39951</v>
+        <v>39103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09616694664633604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06500036373514963</v>
+        <v>0.06270780359012476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1390829356028914</v>
+        <v>0.1361310798164535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -2983,19 +2983,19 @@
         <v>64660</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50690</v>
+        <v>50843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82180</v>
+        <v>82147</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1111030558086745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08709903628644927</v>
+        <v>0.08736229245614997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1412060306410945</v>
+        <v>0.1411500624927326</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>257701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244166</v>
+        <v>244889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268399</v>
+        <v>267330</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8743405509443187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8284168820203657</v>
+        <v>0.8308716327298974</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.910634584043969</v>
+        <v>0.9070097226285637</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -3033,19 +3033,19 @@
         <v>259622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247294</v>
+        <v>248142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268574</v>
+        <v>269232</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9038330533536639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8609170643971087</v>
+        <v>0.8638689201835464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9349996362648504</v>
+        <v>0.9372921964098753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>477</v>
@@ -3054,19 +3054,19 @@
         <v>517323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>499803</v>
+        <v>499836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531293</v>
+        <v>531140</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8888969441913255</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8587939693589056</v>
+        <v>0.8588499375072676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9129009637135508</v>
+        <v>0.9126377075438501</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>32028</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22085</v>
+        <v>21844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44384</v>
+        <v>44556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06335583966237605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0436880052697643</v>
+        <v>0.04321104771837284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08779732217553822</v>
+        <v>0.08813738714036609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3179,19 +3179,19 @@
         <v>30256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21412</v>
+        <v>21210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44235</v>
+        <v>42916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0577669796604721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0408800701112233</v>
+        <v>0.04049608593701352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08445592010759174</v>
+        <v>0.08193813684908993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -3200,19 +3200,19 @@
         <v>62284</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48041</v>
+        <v>47014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79418</v>
+        <v>77274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0605118959222477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04667429541824965</v>
+        <v>0.04567638127445998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07715831900338321</v>
+        <v>0.07507468817370944</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>473499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461143</v>
+        <v>460971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>483442</v>
+        <v>483683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.936644160337624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9122026778244617</v>
+        <v>0.9118626128596338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9563119947302356</v>
+        <v>0.9567889522816272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>452</v>
@@ -3250,19 +3250,19 @@
         <v>493509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479530</v>
+        <v>480849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502353</v>
+        <v>502555</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9422330203395279</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9155440798924084</v>
+        <v>0.9180618631509101</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9591199298887768</v>
+        <v>0.9595039140629863</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -3271,19 +3271,19 @@
         <v>967008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>949874</v>
+        <v>952018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>981251</v>
+        <v>982278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9394881040777523</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9228416809966163</v>
+        <v>0.9249253118262905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9533257045817503</v>
+        <v>0.9543236187255399</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>52853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41033</v>
+        <v>41564</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66809</v>
+        <v>67384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1631018739592958</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1266263706863871</v>
+        <v>0.1282658880921737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2061725465633175</v>
+        <v>0.2079452246006543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3396,19 +3396,19 @@
         <v>40911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29391</v>
+        <v>30590</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54929</v>
+        <v>54070</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1199671988909502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08618418147687695</v>
+        <v>0.08970152597647753</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1610720332327205</v>
+        <v>0.1585541912443142</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -3417,19 +3417,19 @@
         <v>93764</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77065</v>
+        <v>75953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112459</v>
+        <v>110332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1409840885874868</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1158754006407204</v>
+        <v>0.1142033296956779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1690947685390258</v>
+        <v>0.1658969230357071</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>271193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257237</v>
+        <v>256662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283013</v>
+        <v>282482</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8368981260407042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7938274534366826</v>
+        <v>0.792054775399346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.873373629313613</v>
+        <v>0.8717341119078265</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>278</v>
@@ -3467,19 +3467,19 @@
         <v>300109</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>286091</v>
+        <v>286950</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311629</v>
+        <v>310430</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8800328011090498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8389279667672794</v>
+        <v>0.8414458087556856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9138158185231229</v>
+        <v>0.9102984740235224</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>542</v>
@@ -3488,19 +3488,19 @@
         <v>571302</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>552607</v>
+        <v>554734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>588001</v>
+        <v>589113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8590159114125132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8309052314609742</v>
+        <v>0.8341030769642929</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8841245993592796</v>
+        <v>0.8857966703043221</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>32708</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22525</v>
+        <v>21706</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47261</v>
+        <v>46788</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08745933024672115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06022938962146591</v>
+        <v>0.058041241774082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1263727686577658</v>
+        <v>0.1251064377660302</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3613,19 +3613,19 @@
         <v>17436</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10320</v>
+        <v>10298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26615</v>
+        <v>27208</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04482950019953878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0265322578432961</v>
+        <v>0.02647652375737388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0684270990991277</v>
+        <v>0.06995335015775646</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3634,19 +3634,19 @@
         <v>50145</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35670</v>
+        <v>36553</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65451</v>
+        <v>66581</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06572621286545652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04675355381608124</v>
+        <v>0.04791075045993407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08578861068500063</v>
+        <v>0.08726928079592479</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>341274</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>326721</v>
+        <v>327194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351457</v>
+        <v>352276</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9125406697532789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8736272313422342</v>
+        <v>0.8748935622339697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.939770610378534</v>
+        <v>0.941958758225918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -3684,19 +3684,19 @@
         <v>371515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362336</v>
+        <v>361743</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>378631</v>
+        <v>378653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9551704998004612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9315729009008724</v>
+        <v>0.9300466498422436</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9734677421567041</v>
+        <v>0.9735234762426261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>670</v>
@@ -3705,19 +3705,19 @@
         <v>712788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697482</v>
+        <v>696352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727263</v>
+        <v>726380</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9342737871345435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.914211389314999</v>
+        <v>0.9127307192040758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9532464461839187</v>
+        <v>0.952089249540066</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>13172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7327</v>
+        <v>6958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22058</v>
+        <v>21605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06195309726442638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03446315623616758</v>
+        <v>0.03272744184055863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1037447261209335</v>
+        <v>0.1016155485808483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3830,19 +3830,19 @@
         <v>19798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12313</v>
+        <v>12181</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29980</v>
+        <v>28883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09015928719887446</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05607188320328182</v>
+        <v>0.05546957353712213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1365265817183907</v>
+        <v>0.1315311033528699</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -3851,19 +3851,19 @@
         <v>32971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22835</v>
+        <v>23516</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45587</v>
+        <v>44952</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07628372177654849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05283428998709692</v>
+        <v>0.05440859650790725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1054747681980592</v>
+        <v>0.1040062802977425</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>199446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190560</v>
+        <v>191013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205291</v>
+        <v>205660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9380469027355737</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8962552738790657</v>
+        <v>0.8983844514191517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9655368437638324</v>
+        <v>0.9672725581594414</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>193</v>
@@ -3901,19 +3901,19 @@
         <v>199793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189611</v>
+        <v>190708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207278</v>
+        <v>207410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9098407128011256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8634734182816092</v>
+        <v>0.8684688966471301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9439281167967181</v>
+        <v>0.9445304264628779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>376</v>
@@ -3922,19 +3922,19 @@
         <v>399238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386622</v>
+        <v>387257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409374</v>
+        <v>408693</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9237162782234515</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8945252318019408</v>
+        <v>0.8959937197022575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9471657100129031</v>
+        <v>0.9455914034920927</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>30351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20623</v>
+        <v>20693</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43701</v>
+        <v>43029</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1107786072930223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07527049568280364</v>
+        <v>0.07552642232600433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1595052033378995</v>
+        <v>0.1570510840201806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -4047,19 +4047,19 @@
         <v>35415</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25370</v>
+        <v>24418</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48567</v>
+        <v>47428</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1264671862155351</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09059854274545212</v>
+        <v>0.08719878030782986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1734337544096826</v>
+        <v>0.1693655816440451</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -4068,19 +4068,19 @@
         <v>65766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49158</v>
+        <v>52008</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82581</v>
+        <v>83267</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1187085589928112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08873159781602082</v>
+        <v>0.09387447889032074</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1490608172857132</v>
+        <v>0.1502973703803397</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>243630</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230280</v>
+        <v>230952</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253358</v>
+        <v>253288</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8892213927069778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8404947966621005</v>
+        <v>0.8429489159798195</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9247295043171962</v>
+        <v>0.9244735776739956</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -4118,19 +4118,19 @@
         <v>244616</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>231464</v>
+        <v>232603</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254661</v>
+        <v>255613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8735328137844649</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8265662455903171</v>
+        <v>0.8306344183559549</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9094014572545478</v>
+        <v>0.9128012196921701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>468</v>
@@ -4139,19 +4139,19 @@
         <v>488246</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>471431</v>
+        <v>470745</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>504854</v>
+        <v>502004</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8812914410071888</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8509391827142868</v>
+        <v>0.8497026296196604</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9112684021839792</v>
+        <v>0.9061255211096794</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>65751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52141</v>
+        <v>51342</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82750</v>
+        <v>83114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09920360810639224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07866879602503689</v>
+        <v>0.07746294857360572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1248510089980243</v>
+        <v>0.1254012375285186</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -4264,19 +4264,19 @@
         <v>59675</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44999</v>
+        <v>46324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75930</v>
+        <v>77478</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08600526878524593</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06485396138364982</v>
+        <v>0.06676324361047306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1094323450928274</v>
+        <v>0.1116631773725955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -4285,19 +4285,19 @@
         <v>125426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106441</v>
+        <v>104063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147832</v>
+        <v>148578</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09245332790752768</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07845936961660456</v>
+        <v>0.0767060087496845</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1089688390032139</v>
+        <v>0.1095189222693949</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>597037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>580038</v>
+        <v>579674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>610647</v>
+        <v>611446</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9007963918936077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8751489910019756</v>
+        <v>0.874598762471482</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9213312039749633</v>
+        <v>0.9225370514263943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>580</v>
@@ -4335,19 +4335,19 @@
         <v>634178</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>617923</v>
+        <v>616375</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>648854</v>
+        <v>647529</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9139947312147541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8905676549071726</v>
+        <v>0.8883368226274045</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9351460386163504</v>
+        <v>0.9332367563895269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1135</v>
@@ -4356,19 +4356,19 @@
         <v>1231215</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1208809</v>
+        <v>1208063</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1250200</v>
+        <v>1252578</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9075466720924723</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.891031160996786</v>
+        <v>0.8904810777306055</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9215406303833953</v>
+        <v>0.9232939912503155</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>24013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16053</v>
+        <v>15089</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36996</v>
+        <v>34958</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03082154851467353</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02060483917199037</v>
+        <v>0.01936718609634025</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04748535171473989</v>
+        <v>0.04486975015305049</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -4481,19 +4481,19 @@
         <v>26357</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17273</v>
+        <v>17263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39112</v>
+        <v>39812</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03199220862614154</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.020966276638558</v>
+        <v>0.02095389156811876</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04747477073214444</v>
+        <v>0.04832440380581979</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -4502,19 +4502,19 @@
         <v>50370</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37449</v>
+        <v>37271</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67449</v>
+        <v>66419</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03142322110692729</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02336280841987283</v>
+        <v>0.02325134151669908</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04207781238119282</v>
+        <v>0.04143552714952771</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>755085</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>742102</v>
+        <v>744140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>763045</v>
+        <v>764009</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9691784514853264</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.95251464828526</v>
+        <v>0.9551302498469492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9793951608280094</v>
+        <v>0.9806328139036594</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>734</v>
@@ -4552,19 +4552,19 @@
         <v>797496</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>784741</v>
+        <v>784041</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>806580</v>
+        <v>806590</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9680077913738585</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9525252292678557</v>
+        <v>0.9516755961941802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9790337233614421</v>
+        <v>0.9790461084318813</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1429</v>
@@ -4573,19 +4573,19 @@
         <v>1552581</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1535502</v>
+        <v>1536532</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1565502</v>
+        <v>1565680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9685767788930727</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9579221876188072</v>
+        <v>0.9585644728504723</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9766371915801271</v>
+        <v>0.9767486584833009</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>287913</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>256635</v>
+        <v>255202</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>321162</v>
+        <v>320955</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0840185607854334</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07489102728451762</v>
+        <v>0.07447272804580804</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09372113854246493</v>
+        <v>0.09366076894361532</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>241</v>
@@ -4698,19 +4698,19 @@
         <v>257472</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>226602</v>
+        <v>229898</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>289792</v>
+        <v>293609</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07235804472465752</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06368237157492769</v>
+        <v>0.06460890310234906</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08144079426792912</v>
+        <v>0.0825135538443319</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>517</v>
@@ -4719,19 +4719,19 @@
         <v>545385</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>501870</v>
+        <v>501743</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>589969</v>
+        <v>590242</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07807851814310154</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07184875164190303</v>
+        <v>0.07183064796786121</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08446114883974158</v>
+        <v>0.08450028608582184</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3138866</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3105617</v>
+        <v>3105824</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3170144</v>
+        <v>3171577</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9159814392145665</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.906278861457535</v>
+        <v>0.9063392310563846</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9251089727154822</v>
+        <v>0.9255272719541919</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3057</v>
@@ -4769,19 +4769,19 @@
         <v>3300837</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3268517</v>
+        <v>3264700</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3331707</v>
+        <v>3328411</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9276419552753424</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9185592057320709</v>
+        <v>0.9174864461556683</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9363176284250723</v>
+        <v>0.935391096897651</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5990</v>
@@ -4790,19 +4790,19 @@
         <v>6439703</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6395119</v>
+        <v>6394846</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6483218</v>
+        <v>6483345</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9219214818568985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9155388511602582</v>
+        <v>0.9154997139141779</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9281512483580969</v>
+        <v>0.9281693520321387</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>19206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12711</v>
+        <v>11762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29447</v>
+        <v>29838</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06537909846062447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04326831342313272</v>
+        <v>0.04003786140083552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1002413302775494</v>
+        <v>0.1015729461065938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -5159,19 +5159,19 @@
         <v>30188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20384</v>
+        <v>20627</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43169</v>
+        <v>43196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1045642105615054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0706042924257507</v>
+        <v>0.07144653696334448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1495267463462709</v>
+        <v>0.1496207476877591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -5180,19 +5180,19 @@
         <v>49394</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36289</v>
+        <v>36535</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64577</v>
+        <v>64469</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08480151666997889</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06230202893423165</v>
+        <v>0.06272513379486763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1108684486495504</v>
+        <v>0.110682817011961</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>274555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264314</v>
+        <v>263923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281050</v>
+        <v>281999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9346209015393755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8997586697224506</v>
+        <v>0.898427053893406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9567316865768671</v>
+        <v>0.9599621385991643</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>250</v>
@@ -5230,19 +5230,19 @@
         <v>258515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245534</v>
+        <v>245507</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268319</v>
+        <v>268076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8954357894384947</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8504732536537293</v>
+        <v>0.8503792523122411</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9293957075742494</v>
+        <v>0.9285534630366555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -5251,19 +5251,19 @@
         <v>533070</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517887</v>
+        <v>517995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>546175</v>
+        <v>545929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9151984833300211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8891315513504496</v>
+        <v>0.8893171829880391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9376979710657684</v>
+        <v>0.9372748662051325</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>19415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12171</v>
+        <v>11964</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30079</v>
+        <v>29429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0386314015998754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02421761124325558</v>
+        <v>0.02380459508140195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05985062989684607</v>
+        <v>0.05855618135982083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -5376,19 +5376,19 @@
         <v>15878</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8712</v>
+        <v>9064</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26437</v>
+        <v>26058</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03035425711174991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01665523820429508</v>
+        <v>0.01732785262630358</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05054102295199838</v>
+        <v>0.04981525049949622</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -5397,19 +5397,19 @@
         <v>35293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25150</v>
+        <v>23820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50007</v>
+        <v>48676</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03441007626538503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02452094711488789</v>
+        <v>0.02322398546366804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04875578871156592</v>
+        <v>0.04745853701305513</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>483160</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472496</v>
+        <v>473146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490404</v>
+        <v>490611</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9613685984001246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9401493701031536</v>
+        <v>0.9414438186401789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9757823887567444</v>
+        <v>0.9761954049185979</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -5447,19 +5447,19 @@
         <v>507206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496647</v>
+        <v>497026</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>514372</v>
+        <v>514020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9696457428882501</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9494589770480011</v>
+        <v>0.9501847495005037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.983344761795705</v>
+        <v>0.9826721473736965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>927</v>
@@ -5468,19 +5468,19 @@
         <v>990366</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>975652</v>
+        <v>976983</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1000509</v>
+        <v>1001839</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9655899237346149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9512442112884342</v>
+        <v>0.9525414629869458</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9754790528851123</v>
+        <v>0.976776014536332</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>23231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14773</v>
+        <v>14876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33100</v>
+        <v>33583</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07292385249512225</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04637403809337635</v>
+        <v>0.04669671476274467</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1039041945373641</v>
+        <v>0.1054190137610375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5593,19 +5593,19 @@
         <v>13881</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7574</v>
+        <v>8281</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22916</v>
+        <v>22383</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04127593350541617</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02252109973887857</v>
+        <v>0.02462354879922463</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06814116163377948</v>
+        <v>0.06655544224010486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -5614,19 +5614,19 @@
         <v>37112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26239</v>
+        <v>25674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49279</v>
+        <v>49857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05667113814517492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04006701533857287</v>
+        <v>0.03920416704390645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07524938020029338</v>
+        <v>0.07613178259006506</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>295334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285465</v>
+        <v>284982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303792</v>
+        <v>303689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9270761475048778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8960958054626362</v>
+        <v>0.8945809862389623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9536259619066236</v>
+        <v>0.9533032852372553</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>318</v>
@@ -5664,19 +5664,19 @@
         <v>322428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313393</v>
+        <v>313926</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328735</v>
+        <v>328028</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9587240664945839</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9318588383662205</v>
+        <v>0.933444557759895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9774789002611215</v>
+        <v>0.9753764512007753</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>629</v>
@@ -5685,19 +5685,19 @@
         <v>617762</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605595</v>
+        <v>605017</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>628635</v>
+        <v>629200</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9433288618548251</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9247506197997062</v>
+        <v>0.9238682174099346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9599329846614271</v>
+        <v>0.9607958329560935</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>38392</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27445</v>
+        <v>27779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52167</v>
+        <v>51386</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1037728525401384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07418399570743499</v>
+        <v>0.07508687216511936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1410068910490597</v>
+        <v>0.1388942477771875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5810,19 +5810,19 @@
         <v>36371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25562</v>
+        <v>25547</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50514</v>
+        <v>49416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0939135036969177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06600390334808739</v>
+        <v>0.06596543871530919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1304306147037368</v>
+        <v>0.1275954723593777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -5831,19 +5831,19 @@
         <v>74763</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60468</v>
+        <v>58974</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94305</v>
+        <v>94598</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09873043149217565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07985184839363658</v>
+        <v>0.07787949803778843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1245368038101237</v>
+        <v>0.1249235299433758</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>331572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>317797</v>
+        <v>318578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>342519</v>
+        <v>342185</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8962271474598615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8589931089509403</v>
+        <v>0.8611057522228127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9258160042925649</v>
+        <v>0.9249131278348807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -5881,19 +5881,19 @@
         <v>350912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>336769</v>
+        <v>337867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361721</v>
+        <v>361736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9060864963030822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8695693852962634</v>
+        <v>0.8724045276406223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9339960966519127</v>
+        <v>0.9340345612846908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>646</v>
@@ -5902,19 +5902,19 @@
         <v>682484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>662942</v>
+        <v>662649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>696779</v>
+        <v>698273</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9012695685078244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8754631961898761</v>
+        <v>0.8750764700566244</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9201481516063633</v>
+        <v>0.9221205019622118</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>10124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4767</v>
+        <v>5630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17344</v>
+        <v>18518</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04792905924684212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02256684491822893</v>
+        <v>0.02665263239759297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08211445054214334</v>
+        <v>0.08767251402418209</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6027,19 +6027,19 @@
         <v>4533</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1183</v>
+        <v>1106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11205</v>
+        <v>10236</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02073804759309852</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005412398903369646</v>
+        <v>0.005060856476079349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0512611165198885</v>
+        <v>0.04683013012608465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -6048,19 +6048,19 @@
         <v>14657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8601</v>
+        <v>8549</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23561</v>
+        <v>22432</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03410055515097749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02001182431585884</v>
+        <v>0.0198894809897776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05481799354593055</v>
+        <v>0.05219154301017031</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>201097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193877</v>
+        <v>192703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206454</v>
+        <v>205591</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9520709407531579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9178855494578566</v>
+        <v>0.9123274859758178</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9774331550817711</v>
+        <v>0.973347367602407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -6098,19 +6098,19 @@
         <v>214054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>207382</v>
+        <v>208351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217404</v>
+        <v>217481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9792619524069015</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9487388834801116</v>
+        <v>0.9531698698739154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9945876010966304</v>
+        <v>0.9949391435239207</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>420</v>
@@ -6119,19 +6119,19 @@
         <v>415151</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>406247</v>
+        <v>407376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421207</v>
+        <v>421259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658994448490225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9451820064540692</v>
+        <v>0.9478084569898293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.979988175684141</v>
+        <v>0.9801105190102223</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>28224</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19996</v>
+        <v>19420</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39818</v>
+        <v>39998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1072647089457288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07599378504665395</v>
+        <v>0.07380632113788825</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1513293792128028</v>
+        <v>0.152013737410696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -6244,19 +6244,19 @@
         <v>36459</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25716</v>
+        <v>25928</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49350</v>
+        <v>50178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1334945316549321</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09415704114629335</v>
+        <v>0.0949344983362537</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1806923724674984</v>
+        <v>0.1837232811306823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -6265,19 +6265,19 @@
         <v>64683</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49840</v>
+        <v>50324</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81897</v>
+        <v>81191</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1206239972575799</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09294293624973325</v>
+        <v>0.09384572113912669</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.152724751134132</v>
+        <v>0.1514077184143017</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>234899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223305</v>
+        <v>223125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243127</v>
+        <v>243703</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8927352910542712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8486706207871971</v>
+        <v>0.8479862625893039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9240062149533458</v>
+        <v>0.9261936788621117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>231</v>
@@ -6315,19 +6315,19 @@
         <v>236656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223765</v>
+        <v>222937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247399</v>
+        <v>247187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8665054683450679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8193076275325015</v>
+        <v>0.8162767188693177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9058429588537067</v>
+        <v>0.9050655016637463</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>461</v>
@@ -6336,19 +6336,19 @@
         <v>471555</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>454341</v>
+        <v>455047</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>486398</v>
+        <v>485914</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8793760027424201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8472752488658679</v>
+        <v>0.848592281585698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9070570637502666</v>
+        <v>0.9061542788608731</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>26436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17037</v>
+        <v>17291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38923</v>
+        <v>38838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04026475258533866</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02594831102466647</v>
+        <v>0.02633548275275885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05928311447830526</v>
+        <v>0.05915355225693616</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6461,19 +6461,19 @@
         <v>27407</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18037</v>
+        <v>18343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40545</v>
+        <v>39923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03964565059318056</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02609099332133449</v>
+        <v>0.02653485617169163</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05865071935199077</v>
+        <v>0.05775114607725402</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -6482,19 +6482,19 @@
         <v>53843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40012</v>
+        <v>39845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69659</v>
+        <v>69122</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03994722403351056</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02968577190303621</v>
+        <v>0.02956187286377208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05168147616121773</v>
+        <v>0.0512828820867261</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>630122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>617635</v>
+        <v>617720</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>639521</v>
+        <v>639267</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9597352474146613</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9407168855216947</v>
+        <v>0.9408464477430638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9740516889753336</v>
+        <v>0.9736645172472412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>621</v>
@@ -6532,19 +6532,19 @@
         <v>663887</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>650749</v>
+        <v>651371</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673257</v>
+        <v>672951</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9603543494068194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9413492806480087</v>
+        <v>0.9422488539227463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9739090066786654</v>
+        <v>0.9734651438283084</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1177</v>
@@ -6553,19 +6553,19 @@
         <v>1294009</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1278193</v>
+        <v>1278730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1307840</v>
+        <v>1308007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9600527759664894</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9483185238387822</v>
+        <v>0.9487171179132736</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.970314228096963</v>
+        <v>0.9704381271362278</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>34606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24405</v>
+        <v>23820</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47836</v>
+        <v>48277</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04444735424238482</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03134534127625655</v>
+        <v>0.03059432780492803</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06144019425128224</v>
+        <v>0.06200682549140818</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -6678,19 +6678,19 @@
         <v>26736</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18222</v>
+        <v>17600</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38702</v>
+        <v>38996</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03236128831927439</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02205608926848053</v>
+        <v>0.02130267179392862</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04684513466706759</v>
+        <v>0.04720084297591585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -6699,19 +6699,19 @@
         <v>61342</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46713</v>
+        <v>45439</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78871</v>
+        <v>77266</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03822513342472549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02910926910204946</v>
+        <v>0.02831541783110161</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04914830907416375</v>
+        <v>0.04814853807614734</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>743977</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>730747</v>
+        <v>730306</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>754178</v>
+        <v>754763</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9555526457576152</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9385598057487178</v>
+        <v>0.9379931745085917</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9686546587237435</v>
+        <v>0.969405672195072</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>730</v>
@@ -6749,19 +6749,19 @@
         <v>799431</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>787465</v>
+        <v>787171</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>807945</v>
+        <v>808567</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9676387116807256</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9531548653329327</v>
+        <v>0.9527991570240844</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9779439107315195</v>
+        <v>0.9786973282060714</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1447</v>
@@ -6770,19 +6770,19 @@
         <v>1543408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1525879</v>
+        <v>1527484</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1558037</v>
+        <v>1559311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9617748665752746</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9508516909258362</v>
+        <v>0.9518514619238527</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9708907308979506</v>
+        <v>0.9716845821688984</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>199634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>173432</v>
+        <v>172436</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>228601</v>
+        <v>226949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05881354040970593</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05109440142445725</v>
+        <v>0.05080103231740923</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0673473647381875</v>
+        <v>0.06686066821998142</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>172</v>
@@ -6895,19 +6895,19 @@
         <v>191453</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>163299</v>
+        <v>164748</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220707</v>
+        <v>219814</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05401359446578705</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04607045518126178</v>
+        <v>0.04647924367404022</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06226673053886253</v>
+        <v>0.06201478604536539</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>365</v>
@@ -6916,19 +6916,19 @@
         <v>391087</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>353966</v>
+        <v>354445</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>430722</v>
+        <v>433222</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05636162025411929</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05101192179540998</v>
+        <v>0.05108095029341373</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06207361678220056</v>
+        <v>0.06243388843123297</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3194716</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3165749</v>
+        <v>3167401</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3220918</v>
+        <v>3221914</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9411864595902941</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9326526352618123</v>
+        <v>0.9331393317800186</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9489055985755426</v>
+        <v>0.9491989676825909</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3166</v>
@@ -6966,19 +6966,19 @@
         <v>3353089</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3323835</v>
+        <v>3324728</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3381243</v>
+        <v>3379794</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.945986405534213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9377332694611373</v>
+        <v>0.9379852139546342</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9539295448187383</v>
+        <v>0.9535207563259598</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6204</v>
@@ -6987,19 +6987,19 @@
         <v>6547805</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6508170</v>
+        <v>6505670</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6584926</v>
+        <v>6584447</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9436383797458807</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9379263832177995</v>
+        <v>0.937566111568767</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.94898807820459</v>
+        <v>0.9489190497065862</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>27039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17145</v>
+        <v>19200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38394</v>
+        <v>38963</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08480325540800078</v>
+        <v>0.08480325540800081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05377071339213666</v>
+        <v>0.06021686605838992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1204173540787642</v>
+        <v>0.1221992541350832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -7356,19 +7356,19 @@
         <v>30435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23510</v>
+        <v>23661</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38695</v>
+        <v>38362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09629482597124314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07438338222949624</v>
+        <v>0.07486306563953819</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1224274276624337</v>
+        <v>0.1213764945217429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -7377,19 +7377,19 @@
         <v>57474</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45466</v>
+        <v>45870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71026</v>
+        <v>71029</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09052384021170289</v>
+        <v>0.09052384021170287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07161048931504284</v>
+        <v>0.07224725343300374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.111868033862076</v>
+        <v>0.1118738817718472</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>291806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280451</v>
+        <v>279882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301700</v>
+        <v>299645</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9151967445919992</v>
+        <v>0.9151967445919994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8795826459212359</v>
+        <v>0.8778007458649169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9462292866078634</v>
+        <v>0.9397831339416103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>479</v>
@@ -7427,19 +7427,19 @@
         <v>285626</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>277366</v>
+        <v>277699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292551</v>
+        <v>292400</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9037051740287568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8775725723375664</v>
+        <v>0.8786235054782573</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9256166177705044</v>
+        <v>0.925136934360462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -7448,19 +7448,19 @@
         <v>577432</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>563880</v>
+        <v>563877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>589440</v>
+        <v>589036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9094761597882972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8881319661379238</v>
+        <v>0.8881261182281529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9283895106849571</v>
+        <v>0.9277527465669965</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>24703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15030</v>
+        <v>15693</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37081</v>
+        <v>40503</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0465529175652614</v>
+        <v>0.04655291756526139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02832484168195157</v>
+        <v>0.0295733780550858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06987962247340443</v>
+        <v>0.07632793197337231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -7573,19 +7573,19 @@
         <v>34730</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25332</v>
+        <v>25712</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46333</v>
+        <v>46244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06355015215517479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04635436813514492</v>
+        <v>0.0470489885610474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08478287043812253</v>
+        <v>0.08461970546583515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -7594,19 +7594,19 @@
         <v>59433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45744</v>
+        <v>46428</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75624</v>
+        <v>76255</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05517656996177085</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04246834210632736</v>
+        <v>0.04310277990895446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07020825688727646</v>
+        <v>0.07079348661190285</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>505944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493566</v>
+        <v>490144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>515617</v>
+        <v>514954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9534470824347385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9301203775265954</v>
+        <v>0.923672068026627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9716751583180483</v>
+        <v>0.970426621944914</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>669</v>
@@ -7644,19 +7644,19 @@
         <v>511764</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>500161</v>
+        <v>500250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521162</v>
+        <v>520782</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9364498478448252</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9152171295618786</v>
+        <v>0.9153802945341648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9536456318648552</v>
+        <v>0.9529510114389528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1032</v>
@@ -7665,19 +7665,19 @@
         <v>1017708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1001517</v>
+        <v>1000886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1031397</v>
+        <v>1030713</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9448234300382291</v>
+        <v>0.9448234300382292</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9297917431127234</v>
+        <v>0.9292065133880973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9575316578936724</v>
+        <v>0.9568972200910449</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>22311</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14377</v>
+        <v>15095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32076</v>
+        <v>32950</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07060490215670166</v>
+        <v>0.07060490215670168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04549712277675769</v>
+        <v>0.04776924340904021</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1015075394100193</v>
+        <v>0.1042742324551264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -7790,19 +7790,19 @@
         <v>26705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19378</v>
+        <v>18663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36208</v>
+        <v>35541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07493276802330211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05437348419711485</v>
+        <v>0.052369008704587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1015985835158827</v>
+        <v>0.09972781434621536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -7811,19 +7811,19 @@
         <v>49015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38114</v>
+        <v>38259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61928</v>
+        <v>62360</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07289881726182598</v>
+        <v>0.07289881726182597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05668505845788277</v>
+        <v>0.05690060419401609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09210354957044234</v>
+        <v>0.09274535573989695</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>293682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283917</v>
+        <v>283043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301616</v>
+        <v>300898</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9293950978432984</v>
+        <v>0.9293950978432982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8984924605899804</v>
+        <v>0.8957257675448731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9545028772232422</v>
+        <v>0.9522307565909598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>493</v>
@@ -7861,19 +7861,19 @@
         <v>329676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320173</v>
+        <v>320840</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337003</v>
+        <v>337718</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.925067231976698</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8984014164841163</v>
+        <v>0.9002721856537844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9456265158028849</v>
+        <v>0.9476309912954128</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>825</v>
@@ -7882,19 +7882,19 @@
         <v>623360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>610447</v>
+        <v>610015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634261</v>
+        <v>634116</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9271011827381742</v>
+        <v>0.927101182738174</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.907896450429558</v>
+        <v>0.9072546442601035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9433149415421175</v>
+        <v>0.9430993958059842</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>28096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15246</v>
+        <v>16565</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46985</v>
+        <v>47115</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07529410051562739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04085727580579778</v>
+        <v>0.0443934271973167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1259166522352757</v>
+        <v>0.1262638794709927</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -8007,19 +8007,19 @@
         <v>19399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11694</v>
+        <v>12012</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33008</v>
+        <v>34599</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0459725190479648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02771311556612121</v>
+        <v>0.0284676979086237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0782262439788045</v>
+        <v>0.08199639002666816</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -8028,19 +8028,19 @@
         <v>47494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32842</v>
+        <v>33058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67856</v>
+        <v>72756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05973319929751406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04130499894792979</v>
+        <v>0.04157665566401132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08534211784258364</v>
+        <v>0.09150447972102475</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>345049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>326160</v>
+        <v>326030</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357899</v>
+        <v>356580</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9247058994843727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8740833477647239</v>
+        <v>0.8737361205290071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.959142724194202</v>
+        <v>0.9556065728026829</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -8078,19 +8078,19 @@
         <v>402562</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388953</v>
+        <v>387362</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410267</v>
+        <v>409949</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9540274809520352</v>
+        <v>0.9540274809520353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9217737560211957</v>
+        <v>0.9180036099733319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9722868844338788</v>
+        <v>0.9715323020913763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>848</v>
@@ -8099,19 +8099,19 @@
         <v>747613</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>727251</v>
+        <v>722351</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>762265</v>
+        <v>762049</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.940266800702486</v>
+        <v>0.9402668007024859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9146578821574164</v>
+        <v>0.9084955202789755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9586950010520703</v>
+        <v>0.9584233443359887</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>7491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3289</v>
+        <v>3521</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15301</v>
+        <v>15461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03642155426318226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01599197302760526</v>
+        <v>0.01711897317042352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07439795224301393</v>
+        <v>0.07517777621134467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2715</v>
+        <v>2446</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.002312405980937437</v>
+        <v>0.002312405980937436</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01194908697080649</v>
+        <v>0.01076403231865755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -8245,19 +8245,19 @@
         <v>8016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4088</v>
+        <v>4065</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15496</v>
+        <v>16186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01851795460629078</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009442946336426969</v>
+        <v>0.009389681120279825</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03579810269185699</v>
+        <v>0.03739073015522954</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>198174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190364</v>
+        <v>190204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202376</v>
+        <v>202144</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9635784457368178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9256020477569867</v>
+        <v>0.9248222237886554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9840080269723951</v>
+        <v>0.9828810268295766</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>491</v>
@@ -8295,16 +8295,16 @@
         <v>226690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>224500</v>
+        <v>224769</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>227215</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9976875940190627</v>
+        <v>0.9976875940190625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9880509130291942</v>
+        <v>0.9892359676813426</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8316,19 +8316,19 @@
         <v>424863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417383</v>
+        <v>416693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428791</v>
+        <v>428814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9814820453937093</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9642018973081429</v>
+        <v>0.9626092698447704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9905570536635731</v>
+        <v>0.9906103188797202</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>26018</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18444</v>
+        <v>18909</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34933</v>
+        <v>34724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09611169994822771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06813329461243033</v>
+        <v>0.06984975082608567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1290423047058458</v>
+        <v>0.1282715131977686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -8441,19 +8441,19 @@
         <v>28130</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21373</v>
+        <v>22252</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37622</v>
+        <v>36458</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1066538718099052</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08103675084507252</v>
+        <v>0.08436884702881511</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1426413370362163</v>
+        <v>0.1382307943983459</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -8462,19 +8462,19 @@
         <v>54148</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43660</v>
+        <v>42731</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65505</v>
+        <v>64701</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1013141755357755</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08169045427622805</v>
+        <v>0.07995170436422575</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1225633447307243</v>
+        <v>0.1210597624198945</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>244689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235774</v>
+        <v>235983</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252263</v>
+        <v>251798</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9038883000517723</v>
+        <v>0.9038883000517722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8709576952941541</v>
+        <v>0.8717284868022314</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9318667053875698</v>
+        <v>0.9301502491739144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>397</v>
@@ -8512,19 +8512,19 @@
         <v>235620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>226128</v>
+        <v>227292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242377</v>
+        <v>241498</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.893346128190095</v>
+        <v>0.8933461281900946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8573586629637837</v>
+        <v>0.8617692056016539</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9189632491549274</v>
+        <v>0.915631152971185</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>728</v>
@@ -8533,19 +8533,19 @@
         <v>480309</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>468952</v>
+        <v>469756</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>490797</v>
+        <v>491726</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8986858244642245</v>
+        <v>0.8986858244642244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8774366552692756</v>
+        <v>0.8789402375801055</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.918309545723772</v>
+        <v>0.9200482956357744</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>55803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41633</v>
+        <v>40362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76920</v>
+        <v>73642</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0775382123394215</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0578484002316312</v>
+        <v>0.0560833225985805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1068804478337261</v>
+        <v>0.1023248917100463</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -8658,19 +8658,19 @@
         <v>58433</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46332</v>
+        <v>46268</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72325</v>
+        <v>72938</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07568476668689186</v>
+        <v>0.07568476668689185</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06001140328270237</v>
+        <v>0.05992784918442531</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09367770972873549</v>
+        <v>0.09447188882576758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -8679,19 +8679,19 @@
         <v>114236</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94758</v>
+        <v>94338</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138145</v>
+        <v>138327</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07657895563019369</v>
+        <v>0.07657895563019371</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06352164881473589</v>
+        <v>0.06323990604275208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09260663412990978</v>
+        <v>0.09272856250551734</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>663884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>642767</v>
+        <v>646045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>678054</v>
+        <v>679325</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9224617876605784</v>
+        <v>0.9224617876605786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.893119552166274</v>
+        <v>0.8976751082899537</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9421515997683687</v>
+        <v>0.9439166774014193</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>884</v>
@@ -8729,19 +8729,19 @@
         <v>713624</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>699732</v>
+        <v>699119</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>725725</v>
+        <v>725789</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9243152333131081</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9063222902712645</v>
+        <v>0.9055281111742323</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9399885967172976</v>
+        <v>0.9400721508155747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1439</v>
@@ -8750,19 +8750,19 @@
         <v>1377508</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1353599</v>
+        <v>1353417</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1396986</v>
+        <v>1397406</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9234210443698062</v>
+        <v>0.9234210443698065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9073933658700902</v>
+        <v>0.9072714374944826</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9364783511852643</v>
+        <v>0.9367600939572478</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>29562</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19025</v>
+        <v>18737</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44289</v>
+        <v>43425</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03704182279610976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02383858857099164</v>
+        <v>0.02347767807051561</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05549504860145038</v>
+        <v>0.05441197547786671</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -8875,19 +8875,19 @@
         <v>33823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24889</v>
+        <v>24528</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46537</v>
+        <v>45191</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04068590080426636</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02993931026272415</v>
+        <v>0.02950411525423925</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05597915924244776</v>
+        <v>0.05436003190411036</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -8896,19 +8896,19 @@
         <v>63385</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48957</v>
+        <v>49672</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81360</v>
+        <v>81844</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03890105345319371</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03004619597180018</v>
+        <v>0.03048496171375141</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04993254526783745</v>
+        <v>0.05022967956756479</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>768510</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>753783</v>
+        <v>754647</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>779047</v>
+        <v>779335</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9629581772038901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9445049513985498</v>
+        <v>0.9455880245221333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9761614114290085</v>
+        <v>0.9765223219294845</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1018</v>
@@ -8946,19 +8946,19 @@
         <v>797508</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>784794</v>
+        <v>786140</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>806442</v>
+        <v>806803</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9593140991957336</v>
+        <v>0.9593140991957338</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9440208407575523</v>
+        <v>0.9456399680958899</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9700606897372759</v>
+        <v>0.9704958847457608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1755</v>
@@ -8967,19 +8967,19 @@
         <v>1566018</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1548043</v>
+        <v>1547559</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1580446</v>
+        <v>1579731</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9610989465468064</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9500674547321626</v>
+        <v>0.9497703204324351</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9699538040282</v>
+        <v>0.9695150382862486</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>221023</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>191169</v>
+        <v>193808</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>253711</v>
+        <v>259539</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06256369914428099</v>
+        <v>0.062563699144281</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05411317423927597</v>
+        <v>0.0548601524463539</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07181674781885777</v>
+        <v>0.07346635289311175</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>359</v>
@@ -9092,19 +9092,19 @@
         <v>232180</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>207722</v>
+        <v>206702</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>259480</v>
+        <v>259637</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.06215911422152013</v>
+        <v>0.06215911422152014</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05561134505675745</v>
+        <v>0.05533809892483401</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0694679133265199</v>
+        <v>0.06950992358706531</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>571</v>
@@ -9113,19 +9113,19 @@
         <v>453203</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>413735</v>
+        <v>411307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>494975</v>
+        <v>496080</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0623557707449064</v>
+        <v>0.06235577074490638</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05692546160552825</v>
+        <v>0.05659137421023271</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06810318948950893</v>
+        <v>0.06825525963253751</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3311739</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3279051</v>
+        <v>3273223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3341593</v>
+        <v>3338954</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9374363008557191</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9281832521811423</v>
+        <v>0.9265336471068881</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9458868257607241</v>
+        <v>0.945139847553646</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5005</v>
@@ -9163,19 +9163,19 @@
         <v>3503071</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3475771</v>
+        <v>3475614</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3527529</v>
+        <v>3528549</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9378408857784798</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9305320866734801</v>
+        <v>0.9304900764129346</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9443886549432423</v>
+        <v>0.9446619010751661</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8169</v>
@@ -9184,19 +9184,19 @@
         <v>6814810</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6773038</v>
+        <v>6771933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6854278</v>
+        <v>6856706</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9376442292550935</v>
+        <v>0.9376442292550937</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9318968105104909</v>
+        <v>0.9317447403674624</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9430745383944716</v>
+        <v>0.943408625789767</v>
       </c>
     </row>
     <row r="30">
